--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属一维单元强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属一维单元强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="140">
   <si>
     <t>用例编号</t>
   </si>
@@ -1218,6 +1218,10 @@
   </si>
   <si>
     <t>清除文件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1732,18 +1736,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,11 +1845,14 @@
       <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1939,9 +1947,10 @@
       <c r="AF2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -2038,9 +2047,10 @@
       <c r="AF3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2137,9 +2147,10 @@
       <c r="AF4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2236,13 +2247,35 @@
       <c r="AF5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA1048576 AA1">
@@ -2259,15 +2292,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="24" max="24" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,11 +2373,14 @@
       <c r="W1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>125</v>
       </c>
@@ -2411,7 +2450,38 @@
       <c r="W2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="7"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="X12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2419,7 +2489,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2 X3:X1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
@@ -2870,10 +2940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2887,11 +2957,12 @@
     <col min="18" max="18" width="6" style="4" customWidth="1"/>
     <col min="19" max="22" width="6" style="5" customWidth="1"/>
     <col min="23" max="24" width="7.625" style="22" customWidth="1"/>
-    <col min="25" max="25" width="6.625" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="10.875" style="9"/>
+    <col min="25" max="25" width="13.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="6.625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2964,11 +3035,14 @@
       <c r="X1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>125</v>
       </c>
@@ -3039,9 +3113,10 @@
         <v>136</v>
       </c>
       <c r="X2" s="14"/>
-      <c r="Y2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
@@ -3066,9 +3141,10 @@
       <c r="V3" s="7"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3093,9 +3169,10 @@
       <c r="V4" s="7"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3120,9 +3197,10 @@
       <c r="V5" s="7"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3147,9 +3225,10 @@
       <c r="V6" s="7"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3174,9 +3253,10 @@
       <c r="V7" s="7"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3201,9 +3281,10 @@
       <c r="V8" s="7"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3228,9 +3309,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3255,9 +3337,10 @@
       <c r="V10" s="7"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3282,9 +3365,10 @@
       <c r="V11" s="7"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3309,9 +3393,10 @@
       <c r="V12" s="7"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3337,8 +3422,9 @@
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
       <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3364,8 +3450,9 @@
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
       <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3391,8 +3478,9 @@
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
       <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3418,8 +3506,9 @@
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3445,8 +3534,9 @@
       <c r="W17" s="22"/>
       <c r="X17" s="22"/>
       <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3472,8 +3562,9 @@
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3499,6 +3590,7 @@
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
       <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3506,7 +3598,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R12">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R13:R1048576 Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R13:R1048576 Q1:Q1048576 Y3:Y1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
@@ -3521,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -3540,11 +3632,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="22" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3641,11 +3734,14 @@
       <c r="AF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3678,9 +3774,10 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="21"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3713,9 +3810,10 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="21"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3748,9 +3846,10 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="21"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3783,9 +3882,10 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="21"/>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3818,9 +3918,10 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="21"/>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3853,9 +3954,10 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="21"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3888,9 +3990,10 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="21"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3923,9 +4026,10 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="21"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3958,9 +4062,10 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="21"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3993,9 +4098,10 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="21"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4028,9 +4134,10 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="21"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4064,8 +4171,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="22"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4099,8 +4207,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="22"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4134,8 +4243,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="22"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4169,8 +4279,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="22"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4204,8 +4315,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="22"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4239,8 +4351,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="22"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4274,11 +4387,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="22"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属一维单元强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属一维单元强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1056,10 +1056,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>均  值；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>CheckBox1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1080,15 +1076,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>极  值；Button</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Button1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元；Button</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1222,6 +1210,18 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>极  值][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>均  值][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1846,7 +1846,7 @@
         <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>70</v>
@@ -2294,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
@@ -2374,7 +2374,7 @@
         <v>81</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>70</v>
@@ -2382,73 +2382,73 @@
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3">
         <v>222</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="R2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="V2" s="14">
         <v>1</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="7"/>
@@ -2505,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2583,10 +2583,10 @@
         <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>93</v>
@@ -2603,37 +2603,37 @@
         <v>100</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="23" t="s">
+      <c r="K3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="M3" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40.5" customHeight="1">
@@ -2641,40 +2641,40 @@
         <v>68</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5" customHeight="1">
@@ -2682,40 +2682,40 @@
         <v>77</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1">
@@ -2761,166 +2761,166 @@
     </row>
     <row r="7" spans="1:13" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>130</v>
-      </c>
       <c r="I7" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="40.5" customHeight="1"/>
@@ -3033,10 +3033,10 @@
         <v>81</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>70</v>
@@ -3044,73 +3044,73 @@
     </row>
     <row r="2" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3">
         <v>222</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="R2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="T2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="V2" s="14">
         <v>1</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X2" s="14"/>
       <c r="Y2" s="2"/>
@@ -3735,7 +3735,7 @@
         <v>81</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属一维单元强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属一维单元强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -2294,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2505,14 +2505,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" style="17" customWidth="1"/>
-    <col min="2" max="13" width="9" style="15"/>
+    <col min="2" max="10" width="9" style="15"/>
+    <col min="11" max="11" width="11.875" style="15" customWidth="1"/>
+    <col min="12" max="13" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="10" customFormat="1" ht="87" customHeight="1">

--- a/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属一维单元强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/金属结构强度校核/金属一维单元强度校核.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -938,10 +938,6 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试结果等待时间</t>
@@ -1222,6 +1218,10 @@
   </si>
   <si>
     <t>选择结构单元][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1840,13 +1840,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>70</v>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="AF2" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="7"/>
@@ -1958,7 +1958,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>36</v>
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="4"/>
@@ -2145,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="AF4" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="4"/>
@@ -2245,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="AF5" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="4"/>
@@ -2294,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
@@ -2314,40 +2314,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>45</v>
@@ -2368,13 +2368,13 @@
         <v>26</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>70</v>
@@ -2382,73 +2382,73 @@
     </row>
     <row r="2" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="D2" s="3">
         <v>222</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="V2" s="14">
         <v>1</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="7"/>
@@ -2505,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2520,40 +2520,40 @@
     <row r="1" spans="1:13" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1">
@@ -2561,40 +2561,40 @@
         <v>66</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40.5" customHeight="1">
@@ -2602,40 +2602,40 @@
         <v>67</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="23" t="s">
+      <c r="L3" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="40.5" customHeight="1">
@@ -2643,81 +2643,81 @@
         <v>68</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="K4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1">
@@ -2763,166 +2763,166 @@
     </row>
     <row r="7" spans="1:13" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="I7" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="J7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="M7" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>129</v>
-      </c>
       <c r="G8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="24" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="40.5" customHeight="1"/>
@@ -2975,40 +2975,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>45</v>
@@ -3029,16 +3029,16 @@
         <v>26</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>70</v>
@@ -3046,73 +3046,73 @@
     </row>
     <row r="2" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="D2" s="3">
         <v>222</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="14" t="s">
+      <c r="P2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="14" t="s">
+      <c r="S2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="V2" s="14">
         <v>1</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X2" s="14"/>
       <c r="Y2" s="2"/>
@@ -3731,13 +3731,13 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
